--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 09:54:54</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:07:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:07:57</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:45:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:45:23</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:57:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:57:49</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:15:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:15:24</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:30:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:30:41</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:39:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:39:51</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:48:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:48:50</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:57:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:57:53</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:15:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:15:45</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:34:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:34:15</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:45:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:45:19</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:54:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:54:06</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:02:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:02:45</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:21:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:21:43</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:30:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:30:57</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:40:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:40:38</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:49:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:49:02</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:57:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:57:26</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:16:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:16:55</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:35:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:35:13</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:46:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:46:51</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:55:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:55:10</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:06:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:06:41</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:22:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:22:13</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:31:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:31:24</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:40:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:40:03</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:49:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:49:33</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:57:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:57:42</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:17:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:17:10</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:34:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:34:23</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:44:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:44:03</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:53:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:53:20</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:02:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:02:18</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:20:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:20:38</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:30:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:30:04</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:39:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:39:22</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:48:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:48:30</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:56:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:56:57</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:13:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:13:20</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:30:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:30:43</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:40:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:40:06</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:48:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:48:44</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:57:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:57:45</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:11:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:11:54</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:23:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:23:36</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:32:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:32:36</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:41:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:41:12</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:49:55</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5273,7 +5273,7 @@
     <t>ITAGIBÁ</t>
   </si>
   <si>
-    <t>31.918.360,72</t>
+    <t>31.967.150,78</t>
   </si>
   <si>
     <t>Barragem Santo Antônio</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:49:55</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:59:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:59:11</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 09:27:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -3146,7 +3146,7 @@
     <t>-43°55'56.970"</t>
   </si>
   <si>
-    <t>1.209.300,00</t>
+    <t>358.710,00</t>
   </si>
   <si>
     <t>Cimento Tupi S.a.</t>
@@ -24771,16 +24771,16 @@
         <v>43</v>
       </c>
       <c r="N206" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O206" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="O206" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="P206" s="0" t="s">
         <v>46</v>
       </c>
       <c r="Q206" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="R206" s="0" t="s">
         <v>146</v>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 09:27:57</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 09:54:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 09:54:52</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 10:12:47</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5273,7 +5273,7 @@
     <t>ITAGIBÁ</t>
   </si>
   <si>
-    <t>31.967.150,78</t>
+    <t>32.187.252,62</t>
   </si>
   <si>
     <t>Barragem Santo Antônio</t>
@@ -8735,7 +8735,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.321.952,00</t>
+    <t>1.370.000,00</t>
   </si>
   <si>
     <t>Fortuna</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:12:47</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 10:30:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:30:43</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 10:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:39:57</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 10:48:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:48:51</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 10:57:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:57:43</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:12:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:12:33</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:26:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:26:53</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:35:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:35:36</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:44:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:44:39</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:53:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:53:36</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:02:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:02:23</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:22:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:22:11</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:32:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:32:01</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:41:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:41:13</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:49:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:49:58</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 12:59:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 12:59:03</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:19:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:19:27</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:40:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:40:39</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 01:51:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 01:51:12</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:00:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:00:46</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:16:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:16:05</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:28:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:28:15</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:37:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:37:49</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:46:40</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9152,7 +9152,7 @@
     <t>-63°33'55.000"</t>
   </si>
   <si>
-    <t>2.815.305,00</t>
+    <t>3.020.623,00</t>
   </si>
   <si>
     <t>Jacaré Superior</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:46:40</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 02:55:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 02:55:41</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:11:22</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5063,7 +5063,7 @@
     <t>RIACHO DOS MACHADOS</t>
   </si>
   <si>
-    <t>14.702.281,50</t>
+    <t>15.158.662,34</t>
   </si>
   <si>
     <t>Barragem MSG</t>
@@ -32343,7 +32343,7 @@
         <v>297</v>
       </c>
       <c r="K335" s="0">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="L335" s="0" t="s">
         <v>1683</v>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:11:22</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:30:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:30:19</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:41:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:41:38</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:50:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:50:52</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 03:59:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 03:59:11</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:13:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:13:15</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:22:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:22:12</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:31:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:31:04</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:39:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:39:53</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:49:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:49:32</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 04:58:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 04:58:29</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:14:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:14:13</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:28:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:28:14</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:37:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:37:59</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:46:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:46:42</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 05:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 05:55:35</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:09:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:09:46</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:22:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:22:33</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:31:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:31:08</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223926.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:39:57</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:48:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225826.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:48:48</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 06:58:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 06:58:02</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:13:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222726.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:13:56</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:27:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222726.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:27:55</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:36:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:36:42</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:45:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:45:39</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 07:55:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220426.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 07:55:01</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:04:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220426.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222326.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:04:49</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:23:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222326.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:23:16</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:32:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223226.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:32:32</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:41:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224126.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225026.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:41:35</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:50:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-26.xlsx
+++ b/sigbm_download_2022-12-26.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225026.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225926.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 08:50:13</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 08:59:04</t>
   </si>
   <si>
     <t>ID Barragem</t>
